--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N2">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q2">
-        <v>3.327468019578666</v>
+        <v>7.276993971800001</v>
       </c>
       <c r="R2">
-        <v>29.947212176208</v>
+        <v>65.49294574620001</v>
       </c>
       <c r="S2">
-        <v>0.001050905155562998</v>
+        <v>0.001740794002645275</v>
       </c>
       <c r="T2">
-        <v>0.001050905155562998</v>
+        <v>0.001740794002645275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.897648</v>
       </c>
       <c r="O3">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P3">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q3">
-        <v>12.53416829918578</v>
+        <v>20.83585771108444</v>
       </c>
       <c r="R3">
-        <v>112.807514692672</v>
+        <v>187.52271939976</v>
       </c>
       <c r="S3">
-        <v>0.003958632211881191</v>
+        <v>0.004984329557504677</v>
       </c>
       <c r="T3">
-        <v>0.003958632211881192</v>
+        <v>0.004984329557504677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N4">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q4">
-        <v>5.073323326080445</v>
+        <v>4.645204913796111</v>
       </c>
       <c r="R4">
-        <v>45.65990993472401</v>
+        <v>41.806844224165</v>
       </c>
       <c r="S4">
-        <v>0.001602293878662448</v>
+        <v>0.001111220496585684</v>
       </c>
       <c r="T4">
-        <v>0.001602293878662448</v>
+        <v>0.001111220496585685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N5">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q5">
-        <v>15.53480901379955</v>
+        <v>3.787284699871666</v>
       </c>
       <c r="R5">
-        <v>139.813281124196</v>
+        <v>34.085562298845</v>
       </c>
       <c r="S5">
-        <v>0.004906316390489509</v>
+        <v>0.0009059898245615865</v>
       </c>
       <c r="T5">
-        <v>0.004906316390489509</v>
+        <v>0.0009059898245615867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N6">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O6">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P6">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q6">
-        <v>36.91174940098444</v>
+        <v>66.9633210324689</v>
       </c>
       <c r="R6">
-        <v>332.20574460886</v>
+        <v>602.66988929222</v>
       </c>
       <c r="S6">
-        <v>0.0116577372098247</v>
+        <v>0.01601888748324715</v>
       </c>
       <c r="T6">
-        <v>0.01165773720982471</v>
+        <v>0.01601888748324715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N7">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O7">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P7">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q7">
-        <v>4.157749798766667</v>
+        <v>4.000930286061666</v>
       </c>
       <c r="R7">
-        <v>37.4197481889</v>
+        <v>36.008372574555</v>
       </c>
       <c r="S7">
-        <v>0.001313130786939365</v>
+        <v>0.0009570978722764031</v>
       </c>
       <c r="T7">
-        <v>0.001313130786939365</v>
+        <v>0.0009570978722764031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N8">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q8">
-        <v>89.05002169017466</v>
+        <v>117.15377665964</v>
       </c>
       <c r="R8">
-        <v>801.450195211572</v>
+        <v>1054.38398993676</v>
       </c>
       <c r="S8">
-        <v>0.02812442564333077</v>
+        <v>0.02802538968517237</v>
       </c>
       <c r="T8">
-        <v>0.02812442564333078</v>
+        <v>0.02802538968517237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.897648</v>
       </c>
       <c r="O9">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P9">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q9">
         <v>335.4406270303164</v>
@@ -1013,10 +1013,10 @@
         <v>3018.965643272848</v>
       </c>
       <c r="S9">
-        <v>0.1059412989868737</v>
+        <v>0.08024371519899808</v>
       </c>
       <c r="T9">
-        <v>0.1059412989868737</v>
+        <v>0.0802437151989981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N10">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q10">
-        <v>135.7727706383601</v>
+        <v>74.7840799536241</v>
       </c>
       <c r="R10">
-        <v>1221.954935745241</v>
+        <v>673.056719582617</v>
       </c>
       <c r="S10">
-        <v>0.04288074410013176</v>
+        <v>0.01788976030227657</v>
       </c>
       <c r="T10">
-        <v>0.04288074410013176</v>
+        <v>0.01788976030227657</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N11">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q11">
-        <v>415.7440647038098</v>
+        <v>60.97225139867566</v>
       </c>
       <c r="R11">
-        <v>3741.696582334288</v>
+        <v>548.750262588081</v>
       </c>
       <c r="S11">
-        <v>0.1313033148391529</v>
+        <v>0.01458571079952952</v>
       </c>
       <c r="T11">
-        <v>0.1313033148391529</v>
+        <v>0.01458571079952953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N12">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O12">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P12">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q12">
-        <v>987.835815532846</v>
+        <v>1078.055854797573</v>
       </c>
       <c r="R12">
-        <v>8890.522339795614</v>
+        <v>9702.502693178156</v>
       </c>
       <c r="S12">
-        <v>0.3119854932594351</v>
+        <v>0.2578912630436102</v>
       </c>
       <c r="T12">
-        <v>0.3119854932594352</v>
+        <v>0.2578912630436102</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N13">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O13">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P13">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q13">
-        <v>111.2701031486917</v>
+        <v>64.41177428213766</v>
       </c>
       <c r="R13">
-        <v>1001.430928338225</v>
+        <v>579.7059685392391</v>
       </c>
       <c r="S13">
-        <v>0.03514213340923203</v>
+        <v>0.01540850944835276</v>
       </c>
       <c r="T13">
-        <v>0.03514213340923204</v>
+        <v>0.01540850944835276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N14">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q14">
-        <v>19.16939187148533</v>
+        <v>93.26818152596</v>
       </c>
       <c r="R14">
-        <v>172.524526843368</v>
+        <v>839.41363373364</v>
       </c>
       <c r="S14">
-        <v>0.006054216788326097</v>
+        <v>0.02231150550175064</v>
       </c>
       <c r="T14">
-        <v>0.006054216788326098</v>
+        <v>0.02231150550175064</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.897648</v>
       </c>
       <c r="O15">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P15">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q15">
-        <v>72.20877330645689</v>
+        <v>267.0501812667857</v>
       </c>
       <c r="R15">
-        <v>649.878959758112</v>
+        <v>2403.451631401072</v>
       </c>
       <c r="S15">
-        <v>0.02280550006735873</v>
+        <v>0.06388343260363645</v>
       </c>
       <c r="T15">
-        <v>0.02280550006735874</v>
+        <v>0.06388343260363646</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N16">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q16">
-        <v>29.22718486132823</v>
+        <v>59.53692098745145</v>
       </c>
       <c r="R16">
-        <v>263.044663751954</v>
+        <v>535.832288887063</v>
       </c>
       <c r="S16">
-        <v>0.009230742135652996</v>
+        <v>0.01424235273418604</v>
       </c>
       <c r="T16">
-        <v>0.009230742135652996</v>
+        <v>0.01424235273418604</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N17">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q17">
-        <v>89.49532794365179</v>
+        <v>48.54108142001766</v>
       </c>
       <c r="R17">
-        <v>805.457951492866</v>
+        <v>436.869732780159</v>
       </c>
       <c r="S17">
-        <v>0.02826506550367804</v>
+        <v>0.01161194082959797</v>
       </c>
       <c r="T17">
-        <v>0.02826506550367804</v>
+        <v>0.01161194082959797</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N18">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O18">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P18">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q18">
-        <v>212.6469089308122</v>
+        <v>858.2592215742316</v>
       </c>
       <c r="R18">
-        <v>1913.82218037731</v>
+        <v>7724.332994168083</v>
       </c>
       <c r="S18">
-        <v>0.06715969367549997</v>
+        <v>0.2053117690383166</v>
       </c>
       <c r="T18">
-        <v>0.06715969367549998</v>
+        <v>0.2053117690383166</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N19">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O19">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P19">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q19">
-        <v>23.95260742618334</v>
+        <v>51.27934606503567</v>
       </c>
       <c r="R19">
-        <v>215.57346683565</v>
+        <v>461.514114585321</v>
       </c>
       <c r="S19">
-        <v>0.007564886720245609</v>
+        <v>0.01226698530128163</v>
       </c>
       <c r="T19">
-        <v>0.00756488672024561</v>
+        <v>0.01226698530128163</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N20">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O20">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P20">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q20">
-        <v>9.459277474343999</v>
+        <v>3.64722660288</v>
       </c>
       <c r="R20">
-        <v>85.133497269096</v>
+        <v>32.82503942592</v>
       </c>
       <c r="S20">
-        <v>0.002987497823329275</v>
+        <v>0.0008724852901054867</v>
       </c>
       <c r="T20">
-        <v>0.002987497823329275</v>
+        <v>0.0008724852901054869</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.897648</v>
       </c>
       <c r="O21">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P21">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q21">
-        <v>35.631950526496</v>
+        <v>10.442923937024</v>
       </c>
       <c r="R21">
-        <v>320.687554738464</v>
+        <v>93.98631543321599</v>
       </c>
       <c r="S21">
-        <v>0.01125354181940471</v>
+        <v>0.002498144072964718</v>
       </c>
       <c r="T21">
-        <v>0.01125354181940472</v>
+        <v>0.002498144072964719</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N22">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O22">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P22">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q22">
-        <v>14.422369434082</v>
+        <v>2.328174930896</v>
       </c>
       <c r="R22">
-        <v>129.801324906738</v>
+        <v>20.953574378064</v>
       </c>
       <c r="S22">
-        <v>0.004554977629996916</v>
+        <v>0.0005569432890172279</v>
       </c>
       <c r="T22">
-        <v>0.004554977629996917</v>
+        <v>0.0005569432890172281</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N23">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O23">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P23">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q23">
-        <v>44.162128112978</v>
+        <v>1.898185646928</v>
       </c>
       <c r="R23">
-        <v>397.459153016802</v>
+        <v>17.083670822352</v>
       </c>
       <c r="S23">
-        <v>0.01394760455742525</v>
+        <v>0.0004540817544833357</v>
       </c>
       <c r="T23">
-        <v>0.01394760455742525</v>
+        <v>0.0004540817544833359</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N24">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O24">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P24">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q24">
-        <v>104.93218194523</v>
+        <v>33.561990958528</v>
       </c>
       <c r="R24">
-        <v>944.38963750707</v>
+        <v>302.057918626752</v>
       </c>
       <c r="S24">
-        <v>0.03314044502963543</v>
+        <v>0.008028660296249891</v>
       </c>
       <c r="T24">
-        <v>0.03314044502963544</v>
+        <v>0.008028660296249891</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N25">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O25">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P25">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q25">
-        <v>11.81959038645</v>
+        <v>2.005264733232</v>
       </c>
       <c r="R25">
-        <v>106.37631347805</v>
+        <v>18.047382599088</v>
       </c>
       <c r="S25">
-        <v>0.003732949017293925</v>
+        <v>0.0004796970885029999</v>
       </c>
       <c r="T25">
-        <v>0.003732949017293926</v>
+        <v>0.000479697088503</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N26">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O26">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P26">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q26">
-        <v>7.761551784702666</v>
+        <v>9.857658432999999</v>
       </c>
       <c r="R26">
-        <v>69.85396606232401</v>
+        <v>88.71892589699999</v>
       </c>
       <c r="S26">
-        <v>0.002451309745944917</v>
+        <v>0.002358137542341177</v>
       </c>
       <c r="T26">
-        <v>0.002451309745944917</v>
+        <v>0.002358137542341177</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.897648</v>
       </c>
       <c r="O27">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P27">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q27">
-        <v>29.23682384320178</v>
+        <v>28.22494690395555</v>
       </c>
       <c r="R27">
-        <v>263.131414588816</v>
+        <v>254.0245221356</v>
       </c>
       <c r="S27">
-        <v>0.00923378638902694</v>
+        <v>0.006751938848072681</v>
       </c>
       <c r="T27">
-        <v>0.009233786389026942</v>
+        <v>0.006751938848072682</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N28">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O28">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P28">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q28">
-        <v>11.83388134287745</v>
+        <v>6.292549309363888</v>
       </c>
       <c r="R28">
-        <v>106.504932085897</v>
+        <v>56.632943784275</v>
       </c>
       <c r="S28">
-        <v>0.003737462491112204</v>
+        <v>0.001505296299755047</v>
       </c>
       <c r="T28">
-        <v>0.003737462491112204</v>
+        <v>0.001505296299755047</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N29">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O29">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P29">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q29">
-        <v>36.23602809001255</v>
+        <v>5.130382010008332</v>
       </c>
       <c r="R29">
-        <v>326.124252810113</v>
+        <v>46.173438090075</v>
       </c>
       <c r="S29">
-        <v>0.01144432598986832</v>
+        <v>0.001227283995137432</v>
       </c>
       <c r="T29">
-        <v>0.01144432598986832</v>
+        <v>0.001227283995137432</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N30">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O30">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P30">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q30">
-        <v>86.09923604193943</v>
+        <v>90.71074523841111</v>
       </c>
       <c r="R30">
-        <v>774.8931243774549</v>
+        <v>816.3967071456999</v>
       </c>
       <c r="S30">
-        <v>0.02719248705445611</v>
+        <v>0.02169971857863858</v>
       </c>
       <c r="T30">
-        <v>0.02719248705445611</v>
+        <v>0.02169971857863858</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N31">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O31">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P31">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q31">
-        <v>9.698242081091667</v>
+        <v>5.419793437658333</v>
       </c>
       <c r="R31">
-        <v>87.284178729825</v>
+        <v>48.778140938925</v>
       </c>
       <c r="S31">
-        <v>0.003062969363777019</v>
+        <v>0.001296516658995955</v>
       </c>
       <c r="T31">
-        <v>0.00306296936377702</v>
+        <v>0.001296516658995955</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N32">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O32">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P32">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q32">
-        <v>7.108229189162666</v>
+        <v>51.74598953496</v>
       </c>
       <c r="R32">
-        <v>63.974062702464</v>
+        <v>465.7139058146399</v>
       </c>
       <c r="S32">
-        <v>0.002244972651235372</v>
+        <v>0.01237861520738927</v>
       </c>
       <c r="T32">
-        <v>0.002244972651235372</v>
+        <v>0.01237861520738927</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.897648</v>
       </c>
       <c r="O33">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P33">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q33">
-        <v>26.77583689517511</v>
+        <v>148.1617381088746</v>
       </c>
       <c r="R33">
-        <v>240.982532056576</v>
+        <v>1333.455642979872</v>
       </c>
       <c r="S33">
-        <v>0.008456539588685955</v>
+        <v>0.03544307802382736</v>
       </c>
       <c r="T33">
-        <v>0.008456539588685957</v>
+        <v>0.03544307802382737</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N34">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O34">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P34">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q34">
-        <v>10.83777356846578</v>
+        <v>33.03159598434866</v>
       </c>
       <c r="R34">
-        <v>97.539962116192</v>
+        <v>297.284363859138</v>
       </c>
       <c r="S34">
-        <v>0.00342286448762541</v>
+        <v>0.007901779829718984</v>
       </c>
       <c r="T34">
-        <v>0.00342286448762541</v>
+        <v>0.007901779829718987</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N35">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O35">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P35">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q35">
-        <v>33.18588855857422</v>
+        <v>26.93100959062599</v>
       </c>
       <c r="R35">
-        <v>298.672997027168</v>
+        <v>242.379086315634</v>
       </c>
       <c r="S35">
-        <v>0.01048100873485201</v>
+        <v>0.0064424046745428</v>
       </c>
       <c r="T35">
-        <v>0.01048100873485201</v>
+        <v>0.006442404674542802</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N36">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O36">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P36">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q36">
-        <v>78.85189969409777</v>
+        <v>476.1696000849093</v>
       </c>
       <c r="R36">
-        <v>709.66709724688</v>
+        <v>4285.526400764184</v>
       </c>
       <c r="S36">
-        <v>0.02490358056843365</v>
+        <v>0.1139087358436787</v>
       </c>
       <c r="T36">
-        <v>0.02490358056843366</v>
+        <v>0.1139087358436787</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N37">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O37">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P37">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q37">
-        <v>8.881900083466666</v>
+        <v>28.450222374094</v>
       </c>
       <c r="R37">
-        <v>79.93710075119999</v>
+        <v>256.052001366846</v>
       </c>
       <c r="S37">
-        <v>0.002805146295618625</v>
+        <v>0.006805828983048715</v>
       </c>
       <c r="T37">
-        <v>0.002805146295618625</v>
+        <v>0.006805828983048717</v>
       </c>
     </row>
   </sheetData>
